--- a/data/trans_orig/P1412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9200EF51-E045-4076-AD7C-37AFCB375246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD898BE-499C-4984-82A5-72C7CAB7C0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E01F9698-818D-4F12-9C8F-E00E41DCDCE2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{407935EB-A649-4BD4-9952-87B70A04F59D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="289">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -88,7 +88,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -97,802 +97,808 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>0,51%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -1310,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3311B366-E42B-4EAE-B6BD-71EB527B9907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A49B53A-7C7C-4C7D-9129-472173DF9D8D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2051,13 +2057,13 @@
         <v>991</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2066,10 +2072,10 @@
         <v>6550</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>69</v>
@@ -2102,10 +2108,10 @@
         <v>218600</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -2117,13 +2123,13 @@
         <v>425659</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,10 +2355,10 @@
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2361,13 +2367,13 @@
         <v>4510</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2376,13 +2382,13 @@
         <v>9616</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2403,13 @@
         <v>657682</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -2412,13 +2418,13 @@
         <v>688396</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>1244</v>
@@ -2427,13 +2433,13 @@
         <v>1346078</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2495,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2501,13 +2507,13 @@
         <v>4326</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2516,13 +2522,13 @@
         <v>4419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2531,13 +2537,13 @@
         <v>8745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2558,13 @@
         <v>774772</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>751</v>
@@ -2567,13 +2573,13 @@
         <v>816976</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2582,7 +2588,7 @@
         <v>1591748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>124</v>
@@ -2662,7 +2668,7 @@
         <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -2671,13 +2677,13 @@
         <v>24778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -2686,10 +2692,10 @@
         <v>47746</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>132</v>
@@ -2710,10 +2716,10 @@
         <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>3271</v>
@@ -2722,13 +2728,13 @@
         <v>3528190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7">
         <v>6459</v>
@@ -2737,13 +2743,13 @@
         <v>6932001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA323AFF-DA70-45AC-99D0-F9A74781C5AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9D3E56-5DE3-48A3-B0F0-18B5B0BCA00D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3114,7 @@
         <v>151</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3123,7 +3129,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3132,13 +3138,13 @@
         <v>8300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3159,13 @@
         <v>497468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -3171,7 +3177,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>27</v>
@@ -3183,13 +3189,13 @@
         <v>1017359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3263,13 @@
         <v>1531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3278,7 +3284,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3287,13 +3293,13 @@
         <v>1531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,10 +3314,10 @@
         <v>317034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -3326,7 +3332,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3338,10 +3344,10 @@
         <v>653343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -3412,13 +3418,13 @@
         <v>4732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3427,13 +3433,13 @@
         <v>3409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3442,13 +3448,13 @@
         <v>8141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3469,13 @@
         <v>365232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -3478,13 +3484,13 @@
         <v>383874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3493,13 +3499,13 @@
         <v>749106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3579,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3588,7 +3594,7 @@
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3603,7 +3609,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,10 +3624,10 @@
         <v>210407</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -3636,7 +3642,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3651,7 +3657,7 @@
         <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -3722,13 +3728,13 @@
         <v>1781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3752,13 +3758,13 @@
         <v>1781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,10 +3779,10 @@
         <v>261342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -3803,10 +3809,10 @@
         <v>534457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -3883,7 +3889,7 @@
         <v>83</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3892,13 +3898,13 @@
         <v>8257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3910,10 +3916,10 @@
         <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +3934,10 @@
         <v>651474</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>91</v>
@@ -3943,13 +3949,13 @@
         <v>683037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>1215</v>
@@ -3961,10 +3967,10 @@
         <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4026,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4032,13 +4038,13 @@
         <v>5804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4050,10 +4056,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4065,10 +4071,10 @@
         <v>82</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4089,13 @@
         <v>772779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -4101,10 +4107,10 @@
         <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -4116,10 +4122,10 @@
         <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +4196,10 @@
         <v>93</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4202,13 +4208,13 @@
         <v>19183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4217,13 +4223,13 @@
         <v>45338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4244,13 @@
         <v>3368196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4253,13 +4259,13 @@
         <v>3525359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M29" s="7">
         <v>6526</v>
@@ -4268,13 +4274,13 @@
         <v>6893554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5306C3-BE4F-4628-A671-2F76536BB464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E144ADE0-6D91-48DC-9119-5755FB2D77E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4371,7 +4377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4478,13 +4484,13 @@
         <v>1543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4493,13 +4499,13 @@
         <v>406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4508,13 +4514,13 @@
         <v>1949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,10 +4535,10 @@
         <v>258755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -4544,10 +4550,10 @@
         <v>270997</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -4559,13 +4565,13 @@
         <v>529751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4639,13 @@
         <v>3886</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4648,13 +4654,13 @@
         <v>2532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4666,10 +4672,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,10 +4690,10 @@
         <v>512930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>27</v>
@@ -4699,13 +4705,13 @@
         <v>550520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>1087</v>
@@ -4717,10 +4723,10 @@
         <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4794,13 @@
         <v>4947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4803,13 +4809,13 @@
         <v>4076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4818,13 +4824,13 @@
         <v>9023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4845,13 @@
         <v>317293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4854,13 +4860,13 @@
         <v>369208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>882</v>
@@ -4869,13 +4875,13 @@
         <v>686501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4949,13 @@
         <v>6212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4958,13 +4964,13 @@
         <v>446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4976,10 +4982,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5000,13 @@
         <v>316028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -5009,10 +5015,10 @@
         <v>428110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -5027,10 +5033,10 @@
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5110,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5113,13 +5119,13 @@
         <v>787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5134,7 +5140,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5158,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5164,10 +5170,10 @@
         <v>230259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -5182,7 +5188,7 @@
         <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -5253,13 +5259,13 @@
         <v>4884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5268,13 +5274,13 @@
         <v>2041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5283,13 +5289,13 @@
         <v>6925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5310,13 @@
         <v>272339</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>454</v>
@@ -5319,13 +5325,13 @@
         <v>272864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>816</v>
@@ -5334,13 +5340,13 @@
         <v>545202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5414,13 @@
         <v>6976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5423,13 +5429,13 @@
         <v>4717</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5438,13 +5444,13 @@
         <v>11693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5465,13 @@
         <v>618685</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>947</v>
@@ -5474,13 +5480,13 @@
         <v>798465</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>1536</v>
@@ -5489,13 +5495,13 @@
         <v>1417150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5557,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5566,10 +5572,10 @@
         <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5578,13 +5584,13 @@
         <v>4696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5596,10 +5602,10 @@
         <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5620,13 @@
         <v>856034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
@@ -5629,13 +5635,13 @@
         <v>860976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>1812</v>
@@ -5644,13 +5650,13 @@
         <v>1717010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5724,13 @@
         <v>31843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -5733,13 +5739,13 @@
         <v>19700</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -5748,13 +5754,13 @@
         <v>51543</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5775,13 @@
         <v>3348810</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="H29" s="7">
         <v>5318</v>
@@ -5784,13 +5790,13 @@
         <v>3781400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>8647</v>
@@ -5799,10 +5805,10 @@
         <v>7130211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>89</v>

--- a/data/trans_orig/P1412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD898BE-499C-4984-82A5-72C7CAB7C0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E88BEF-42D8-4A50-8C29-32F1228F5352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{407935EB-A649-4BD4-9952-87B70A04F59D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19A5B486-79FB-4A90-8403-BB1F92694D45}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="283">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -88,810 +88,795 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>0,72%</t>
   </si>
   <si>
@@ -899,9 +884,6 @@
   </si>
   <si>
     <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -1316,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A49B53A-7C7C-4C7D-9129-472173DF9D8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9907C360-D74E-4F34-8531-BC17830553C7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1610,10 +1592,10 @@
         <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,13 +1610,13 @@
         <v>503506</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -1643,13 +1625,13 @@
         <v>520566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -1658,13 +1640,13 @@
         <v>1024072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1661,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1694,13 +1676,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1709,18 +1691,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1735,10 +1717,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1747,13 +1729,13 @@
         <v>1102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1762,13 +1744,13 @@
         <v>1102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1765,13 @@
         <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -1798,13 +1780,13 @@
         <v>339918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -1813,13 +1795,13 @@
         <v>663964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1816,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1849,13 +1831,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1864,18 +1846,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1887,13 +1869,13 @@
         <v>5957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1902,13 +1884,13 @@
         <v>7406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1917,13 +1899,13 @@
         <v>13363</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1920,13 @@
         <v>662763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>620</v>
@@ -1953,13 +1935,13 @@
         <v>668790</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -1968,13 +1950,13 @@
         <v>1331553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1971,13 @@
         <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>627</v>
@@ -2004,13 +1986,13 @@
         <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>1253</v>
@@ -2019,18 +2001,18 @@
         <v>1344916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2042,13 +2024,13 @@
         <v>5559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2057,13 +2039,13 @@
         <v>991</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2072,13 +2054,13 @@
         <v>6550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,13 +2075,13 @@
         <v>207059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -2108,13 +2090,13 @@
         <v>218600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -2123,13 +2105,13 @@
         <v>425659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2126,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2159,13 +2141,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2174,18 +2156,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2200,10 +2182,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2212,13 +2194,13 @@
         <v>3151</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2227,13 +2209,13 @@
         <v>3151</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2230,13 @@
         <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2263,13 +2245,13 @@
         <v>274945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2278,13 +2260,13 @@
         <v>548926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2281,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2314,13 +2296,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2329,18 +2311,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2352,13 +2334,13 @@
         <v>5106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2367,13 +2349,13 @@
         <v>4510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2382,13 +2364,13 @@
         <v>9616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2385,13 @@
         <v>657682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -2418,13 +2400,13 @@
         <v>688396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>1244</v>
@@ -2433,13 +2415,13 @@
         <v>1346078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2436,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>635</v>
@@ -2469,13 +2451,13 @@
         <v>692906</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1253</v>
@@ -2484,18 +2466,18 @@
         <v>1355694</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2507,13 +2489,13 @@
         <v>4326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2522,13 +2504,13 @@
         <v>4419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2537,13 +2519,13 @@
         <v>8745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2540,13 @@
         <v>774772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>751</v>
@@ -2573,13 +2555,13 @@
         <v>816976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2588,13 +2570,13 @@
         <v>1591748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2591,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2624,13 +2606,13 @@
         <v>821395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -2639,13 +2621,13 @@
         <v>1600493</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2644,13 @@
         <v>22968</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -2677,13 +2659,13 @@
         <v>24778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -2692,13 +2674,13 @@
         <v>47746</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2695,13 @@
         <v>3403811</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>3271</v>
@@ -2728,13 +2710,13 @@
         <v>3528190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>6459</v>
@@ -2743,13 +2725,13 @@
         <v>6932001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2746,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>3294</v>
@@ -2779,13 +2761,13 @@
         <v>3552968</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>6503</v>
@@ -2794,18 +2776,18 @@
         <v>6979747</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9D3E56-5DE3-48A3-B0F0-18B5B0BCA00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE1D173-485A-46CF-9127-85BF4B92E460}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2846,7 +2828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +2935,13 @@
         <v>1301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2968,13 +2950,13 @@
         <v>1018</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2989,7 +2971,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2986,13 @@
         <v>292460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7">
         <v>276</v>
@@ -3019,13 +3001,13 @@
         <v>287685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>541</v>
@@ -3034,13 +3016,13 @@
         <v>580144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3037,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3070,13 +3052,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3085,13 +3067,13 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3090,13 @@
         <v>5107</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3129,7 +3111,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3138,13 +3120,13 @@
         <v>8300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3141,13 @@
         <v>497468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -3174,13 +3156,13 @@
         <v>519892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3189,13 +3171,13 @@
         <v>1017359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3192,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3225,13 +3207,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3240,18 +3222,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3245,13 @@
         <v>1531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3281,10 +3263,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3293,13 +3275,13 @@
         <v>1531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3296,13 @@
         <v>317034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -3329,13 +3311,13 @@
         <v>336309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -3344,13 +3326,13 @@
         <v>653343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3347,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3380,13 +3362,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3395,18 +3377,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3418,13 +3400,13 @@
         <v>4732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3433,13 +3415,13 @@
         <v>3409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3448,13 +3430,13 @@
         <v>8141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3451,13 @@
         <v>365232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -3484,13 +3466,13 @@
         <v>383874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3499,13 +3481,13 @@
         <v>749106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3502,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3535,13 +3517,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3550,18 +3532,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3573,13 +3555,13 @@
         <v>814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3591,10 +3573,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3609,7 +3591,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3606,13 @@
         <v>210407</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -3639,13 +3621,13 @@
         <v>218587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>434</v>
@@ -3654,13 +3636,13 @@
         <v>428994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3657,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3690,13 +3672,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3705,18 +3687,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3710,13 @@
         <v>1781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3746,10 +3728,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3758,13 +3740,13 @@
         <v>1781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3761,13 @@
         <v>261342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3794,13 +3776,13 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3809,13 +3791,13 @@
         <v>534457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3812,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3845,13 +3827,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3860,18 +3842,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3883,13 +3865,13 @@
         <v>5084</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3898,13 +3880,13 @@
         <v>8257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3913,13 +3895,13 @@
         <v>13341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3916,13 @@
         <v>651474</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>639</v>
@@ -3949,13 +3931,13 @@
         <v>683037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>1215</v>
@@ -3964,13 +3946,13 @@
         <v>1334511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3967,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4000,13 +3982,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4015,18 +3997,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4038,13 +4020,13 @@
         <v>5804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4056,7 +4038,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>193</v>
@@ -4068,13 +4050,13 @@
         <v>9110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4071,13 @@
         <v>772779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -4104,13 +4086,13 @@
         <v>822861</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -4119,13 +4101,13 @@
         <v>1595640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4122,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4155,13 +4137,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4170,13 +4152,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4175,13 @@
         <v>26154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4208,13 +4190,13 @@
         <v>19183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4223,13 +4205,13 @@
         <v>45338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4226,13 @@
         <v>3368196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4259,13 +4241,13 @@
         <v>3525359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>6526</v>
@@ -4274,13 +4256,13 @@
         <v>6893554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4277,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4310,13 +4292,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4325,18 +4307,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E144ADE0-6D91-48DC-9119-5755FB2D77E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8E0F36-42FF-44ED-A9C2-4E314D6375BE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4377,7 +4359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4484,13 +4466,13 @@
         <v>1543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4499,13 +4481,13 @@
         <v>406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4514,13 +4496,13 @@
         <v>1949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4517,13 @@
         <v>258755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7">
         <v>537</v>
@@ -4550,13 +4532,13 @@
         <v>270997</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>866</v>
@@ -4565,13 +4547,13 @@
         <v>529751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4568,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -4601,13 +4583,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -4616,13 +4598,13 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4621,13 @@
         <v>3886</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4654,13 +4636,13 @@
         <v>2532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4669,13 +4651,13 @@
         <v>6418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4672,13 @@
         <v>512930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
@@ -4705,13 +4687,13 @@
         <v>550520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>1087</v>
@@ -4720,13 +4702,13 @@
         <v>1063450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4723,13 @@
         <v>516816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>715</v>
@@ -4756,13 +4738,13 @@
         <v>553052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>1095</v>
@@ -4771,18 +4753,18 @@
         <v>1069868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4794,13 +4776,13 @@
         <v>4947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4809,13 +4791,13 @@
         <v>4076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4824,13 +4806,13 @@
         <v>9023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4827,13 @@
         <v>317293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4860,13 +4842,13 @@
         <v>369208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>882</v>
@@ -4875,13 +4857,13 @@
         <v>686501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4878,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -4911,13 +4893,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -4926,18 +4908,18 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4949,13 +4931,13 @@
         <v>6212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4964,7 +4946,7 @@
         <v>446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -4979,13 +4961,13 @@
         <v>6658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4982,13 @@
         <v>316028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -5015,13 +4997,13 @@
         <v>428110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>881</v>
@@ -5030,13 +5012,13 @@
         <v>744138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5033,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -5066,13 +5048,13 @@
         <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
@@ -5081,18 +5063,18 @@
         <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5107,10 +5089,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5119,13 +5101,13 @@
         <v>787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5134,13 +5116,13 @@
         <v>787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5137,13 @@
         <v>196748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>488</v>
@@ -5170,13 +5152,13 @@
         <v>230259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -5185,13 +5167,13 @@
         <v>427007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5188,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -5221,13 +5203,13 @@
         <v>231046</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>769</v>
@@ -5236,18 +5218,18 @@
         <v>427794</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5259,13 +5241,13 @@
         <v>4884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5274,13 +5256,13 @@
         <v>2041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5289,13 +5271,13 @@
         <v>6925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5292,13 @@
         <v>272339</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>454</v>
@@ -5325,13 +5307,13 @@
         <v>272864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>816</v>
@@ -5340,13 +5322,13 @@
         <v>545202</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5343,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
@@ -5376,13 +5358,13 @@
         <v>274905</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
@@ -5391,18 +5373,18 @@
         <v>552127</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5414,13 +5396,13 @@
         <v>6976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5429,13 +5411,13 @@
         <v>4717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5444,13 +5426,13 @@
         <v>11693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5447,13 @@
         <v>618685</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>947</v>
@@ -5480,13 +5462,13 @@
         <v>798465</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>1536</v>
@@ -5495,13 +5477,13 @@
         <v>1417150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5498,13 @@
         <v>625661</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>957</v>
@@ -5531,13 +5513,13 @@
         <v>803182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1554</v>
@@ -5546,18 +5528,18 @@
         <v>1428843</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5569,13 +5551,13 @@
         <v>3394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5584,13 +5566,13 @@
         <v>4696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5599,13 +5581,13 @@
         <v>8090</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5602,13 @@
         <v>856034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
@@ -5635,13 +5617,13 @@
         <v>860976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>1812</v>
@@ -5650,13 +5632,13 @@
         <v>1717010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5653,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -5686,13 +5668,13 @@
         <v>865672</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
@@ -5701,13 +5683,13 @@
         <v>1725100</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5706,13 @@
         <v>31843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -5739,13 +5721,13 @@
         <v>19700</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -5754,13 +5736,13 @@
         <v>51543</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5757,13 @@
         <v>3348810</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>5318</v>
@@ -5790,13 +5772,13 @@
         <v>3781400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>8647</v>
@@ -5805,13 +5787,13 @@
         <v>7130211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5808,13 @@
         <v>3380653</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>5355</v>
@@ -5841,13 +5823,13 @@
         <v>3801100</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>8727</v>
@@ -5856,18 +5838,18 @@
         <v>7181754</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E88BEF-42D8-4A50-8C29-32F1228F5352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{435B5EA5-D093-44FB-984A-7F22A4E9D2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19A5B486-79FB-4A90-8403-BB1F92694D45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA84259-6241-43E9-8672-DF10F11C999E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="287">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -88,802 +88,814 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -1298,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9907C360-D74E-4F34-8531-BC17830553C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE117860-634C-429A-B158-DBDB05943358}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1592,10 +1604,10 @@
         <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1622,13 @@
         <v>503506</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -1625,13 +1637,13 @@
         <v>520566</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -1640,13 +1652,13 @@
         <v>1024072</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1673,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -1676,13 +1688,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -1691,18 +1703,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1717,10 +1729,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1729,13 +1741,13 @@
         <v>1102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1744,13 +1756,13 @@
         <v>1102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1777,13 @@
         <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>316</v>
@@ -1780,13 +1792,13 @@
         <v>339918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -1795,13 +1807,13 @@
         <v>663964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1828,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1831,13 +1843,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1846,18 +1858,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1869,13 +1881,13 @@
         <v>5957</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1884,13 +1896,13 @@
         <v>7406</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1899,13 +1911,13 @@
         <v>13363</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,13 +1932,13 @@
         <v>662763</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>620</v>
@@ -1935,13 +1947,13 @@
         <v>668790</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1240</v>
@@ -1950,13 +1962,13 @@
         <v>1331553</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1983,13 @@
         <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>627</v>
@@ -1986,13 +1998,13 @@
         <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1253</v>
@@ -2001,18 +2013,18 @@
         <v>1344916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2024,13 +2036,13 @@
         <v>5559</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2039,13 +2051,13 @@
         <v>991</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2054,13 +2066,13 @@
         <v>6550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2087,13 @@
         <v>207059</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -2090,13 +2102,13 @@
         <v>218600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -2105,13 +2117,13 @@
         <v>425659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2138,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2141,13 +2153,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2156,18 +2168,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2182,10 +2194,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2194,13 +2206,13 @@
         <v>3151</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2209,13 +2221,13 @@
         <v>3151</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2242,13 @@
         <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2245,13 +2257,13 @@
         <v>274945</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2260,13 +2272,13 @@
         <v>548926</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2293,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2296,13 +2308,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2311,18 +2323,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2334,13 +2346,13 @@
         <v>5106</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2349,13 +2361,13 @@
         <v>4510</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2364,13 +2376,13 @@
         <v>9616</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2397,13 @@
         <v>657682</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -2400,10 +2412,10 @@
         <v>688396</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>107</v>
@@ -2436,13 +2448,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>635</v>
@@ -2451,13 +2463,13 @@
         <v>692906</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1253</v>
@@ -2466,13 +2478,13 @@
         <v>1355694</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,10 +2516,10 @@
         <v>4419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>116</v>
@@ -2519,13 +2531,13 @@
         <v>8745</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2552,13 @@
         <v>774772</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>751</v>
@@ -2555,13 +2567,13 @@
         <v>816976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2570,13 +2582,13 @@
         <v>1591748</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2603,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2606,13 +2618,13 @@
         <v>821395</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
@@ -2621,13 +2633,13 @@
         <v>1600493</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2656,13 @@
         <v>22968</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -2659,13 +2671,13 @@
         <v>24778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -2674,13 +2686,13 @@
         <v>47746</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2707,13 @@
         <v>3403811</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>3271</v>
@@ -2710,13 +2722,13 @@
         <v>3528190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="M29" s="7">
         <v>6459</v>
@@ -2725,13 +2737,13 @@
         <v>6932001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2758,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3294</v>
@@ -2761,13 +2773,13 @@
         <v>3552968</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6503</v>
@@ -2776,18 +2788,18 @@
         <v>6979747</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE1D173-485A-46CF-9127-85BF4B92E460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A4EDB8-D09B-4220-9AFD-A398B33AA251}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2828,7 +2840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2935,13 +2947,13 @@
         <v>1301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2950,13 +2962,13 @@
         <v>1018</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2971,7 +2983,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2998,13 @@
         <v>292460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>276</v>
@@ -3001,13 +3013,13 @@
         <v>287685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>541</v>
@@ -3016,13 +3028,13 @@
         <v>580144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3049,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3052,13 +3064,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3067,13 +3079,13 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3102,13 @@
         <v>5107</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3111,7 +3123,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3120,13 +3132,13 @@
         <v>8300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3153,13 @@
         <v>497468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -3156,13 +3168,13 @@
         <v>519892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3171,13 +3183,13 @@
         <v>1017359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3204,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3207,13 +3219,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3222,18 +3234,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3245,13 +3257,13 @@
         <v>1531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3263,10 +3275,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3275,13 +3287,13 @@
         <v>1531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3308,13 @@
         <v>317034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -3311,13 +3323,13 @@
         <v>336309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -3326,13 +3338,13 @@
         <v>653343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3359,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3362,13 +3374,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3377,18 +3389,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3400,13 +3412,13 @@
         <v>4732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3415,13 +3427,13 @@
         <v>3409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3430,13 +3442,13 @@
         <v>8141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3463,13 @@
         <v>365232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -3466,13 +3478,13 @@
         <v>383874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3481,13 +3493,13 @@
         <v>749106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3514,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3517,13 +3529,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3532,18 +3544,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3555,13 +3567,13 @@
         <v>814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3573,10 +3585,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3591,7 +3603,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3618,13 @@
         <v>210407</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -3621,13 +3633,13 @@
         <v>218587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
         <v>434</v>
@@ -3636,13 +3648,13 @@
         <v>428994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3669,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3672,13 +3684,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3687,18 +3699,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3710,13 +3722,13 @@
         <v>1781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3728,10 +3740,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3740,13 +3752,13 @@
         <v>1781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3773,13 @@
         <v>261342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3776,13 +3788,13 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3791,13 +3803,13 @@
         <v>534457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3824,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3827,13 +3839,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3842,18 +3854,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3865,13 +3877,13 @@
         <v>5084</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3880,13 +3892,13 @@
         <v>8257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3895,13 +3907,13 @@
         <v>13341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3928,13 @@
         <v>651474</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>639</v>
@@ -3931,13 +3943,13 @@
         <v>683037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>1215</v>
@@ -3946,13 +3958,13 @@
         <v>1334511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3979,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3982,13 +3994,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3997,13 +4009,13 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4032,13 @@
         <v>5804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4038,10 +4050,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4050,13 +4062,13 @@
         <v>9110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4083,13 @@
         <v>772779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -4086,13 +4098,13 @@
         <v>822861</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -4101,13 +4113,13 @@
         <v>1595640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4134,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4137,13 +4149,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4152,13 +4164,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4187,13 @@
         <v>26154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4190,13 +4202,13 @@
         <v>19183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4205,13 +4217,13 @@
         <v>45338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4238,13 @@
         <v>3368196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4241,13 +4253,13 @@
         <v>3525359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="M29" s="7">
         <v>6526</v>
@@ -4256,13 +4268,13 @@
         <v>6893554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4289,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4292,13 +4304,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4307,18 +4319,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8E0F36-42FF-44ED-A9C2-4E314D6375BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98FCFC5-A257-448C-A4B8-07A6FFD1388A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4359,7 +4371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4466,13 +4478,13 @@
         <v>1543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4481,13 +4493,13 @@
         <v>406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4496,13 +4508,13 @@
         <v>1949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4529,13 @@
         <v>258755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>537</v>
@@ -4532,13 +4544,13 @@
         <v>270997</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>866</v>
@@ -4547,13 +4559,13 @@
         <v>529751</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4580,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -4583,13 +4595,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -4598,13 +4610,13 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4633,13 @@
         <v>3886</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4636,13 +4648,13 @@
         <v>2532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4651,13 +4663,13 @@
         <v>6418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4684,13 @@
         <v>512930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
@@ -4687,13 +4699,13 @@
         <v>550520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>1087</v>
@@ -4702,13 +4714,13 @@
         <v>1063450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4735,13 @@
         <v>516816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>715</v>
@@ -4738,13 +4750,13 @@
         <v>553052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1095</v>
@@ -4753,18 +4765,18 @@
         <v>1069868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4776,13 +4788,13 @@
         <v>4947</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4791,13 +4803,13 @@
         <v>4076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4806,13 +4818,13 @@
         <v>9023</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4839,13 @@
         <v>317293</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4842,13 +4854,13 @@
         <v>369208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>882</v>
@@ -4857,13 +4869,13 @@
         <v>686501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4890,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -4893,13 +4905,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -4908,18 +4920,18 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4931,13 +4943,13 @@
         <v>6212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4946,13 +4958,13 @@
         <v>446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4961,13 +4973,13 @@
         <v>6658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4994,13 @@
         <v>316028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -4997,13 +5009,13 @@
         <v>428110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>881</v>
@@ -5012,13 +5024,13 @@
         <v>744138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5045,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -5048,13 +5060,13 @@
         <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
@@ -5063,18 +5075,18 @@
         <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5089,10 +5101,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5101,13 +5113,13 @@
         <v>787</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5116,13 +5128,13 @@
         <v>787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5149,13 @@
         <v>196748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>488</v>
@@ -5152,13 +5164,13 @@
         <v>230259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -5167,13 +5179,13 @@
         <v>427007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5200,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -5203,13 +5215,13 @@
         <v>231046</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>769</v>
@@ -5218,18 +5230,18 @@
         <v>427794</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5241,13 +5253,13 @@
         <v>4884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5256,13 +5268,13 @@
         <v>2041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -5271,13 +5283,13 @@
         <v>6925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5304,13 @@
         <v>272339</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>454</v>
@@ -5307,13 +5319,13 @@
         <v>272864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>816</v>
@@ -5328,7 +5340,7 @@
         <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5355,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
@@ -5358,13 +5370,13 @@
         <v>274905</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
@@ -5373,18 +5385,18 @@
         <v>552127</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5396,13 +5408,13 @@
         <v>6976</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5411,13 +5423,13 @@
         <v>4717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5426,13 +5438,13 @@
         <v>11693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5459,13 @@
         <v>618685</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7">
         <v>947</v>
@@ -5462,13 +5474,13 @@
         <v>798465</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1536</v>
@@ -5477,13 +5489,13 @@
         <v>1417150</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5510,13 @@
         <v>625661</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>957</v>
@@ -5513,13 +5525,13 @@
         <v>803182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1554</v>
@@ -5528,13 +5540,13 @@
         <v>1428843</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5563,13 @@
         <v>3394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5566,13 +5578,13 @@
         <v>4696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5581,13 +5593,13 @@
         <v>8090</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5614,13 @@
         <v>856034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
@@ -5617,13 +5629,13 @@
         <v>860976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>1812</v>
@@ -5632,13 +5644,13 @@
         <v>1717010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5665,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -5668,13 +5680,13 @@
         <v>865672</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
@@ -5683,13 +5695,13 @@
         <v>1725100</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5718,13 @@
         <v>31843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -5721,13 +5733,13 @@
         <v>19700</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -5736,13 +5748,13 @@
         <v>51543</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5769,13 @@
         <v>3348810</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>5318</v>
@@ -5772,13 +5784,13 @@
         <v>3781400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="M29" s="7">
         <v>8647</v>
@@ -5787,13 +5799,13 @@
         <v>7130211</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5820,13 @@
         <v>3380653</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5355</v>
@@ -5823,13 +5835,13 @@
         <v>3801100</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8727</v>
@@ -5838,18 +5850,18 @@
         <v>7181754</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{435B5EA5-D093-44FB-984A-7F22A4E9D2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86ECC903-5F38-43D5-A4F0-477BCB394976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BA84259-6241-43E9-8672-DF10F11C999E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98B6A901-2D43-42D6-87AE-58FE4B7DB52E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="298">
   <si>
     <t>Población con diagnóstico de angina de pecho en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -73,24 +73,72 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
@@ -109,12 +157,6 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
@@ -130,9 +172,6 @@
     <t>98,88%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -172,733 +211,727 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de angina de pecho en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE117860-634C-429A-B158-DBDB05943358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D96C6D-2B0F-4924-9BC5-7D47D850482D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1428,88 +1461,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3728</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2131</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5859</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D5" s="7">
+        <v>291010</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="I5" s="7">
+        <v>285114</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N5" s="7">
+        <v>576124</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,48 +1563,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1571,13 +1622,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1586,13 +1637,13 @@
         <v>3199</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1601,19 +1652,19 @@
         <v>5220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -1622,13 +1673,13 @@
         <v>503506</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -1637,13 +1688,13 @@
         <v>520566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -1652,13 +1703,13 @@
         <v>1024072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1765,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1729,10 +1780,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1741,13 +1792,13 @@
         <v>1102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1756,19 +1807,19 @@
         <v>1102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>319</v>
@@ -1777,10 +1828,10 @@
         <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -1792,13 +1843,13 @@
         <v>339918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -1807,13 +1858,13 @@
         <v>663964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,106 +1920,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>5957</v>
+        <v>2229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5276</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="7">
         <v>7</v>
       </c>
-      <c r="I13" s="7">
-        <v>7406</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
       <c r="N13" s="7">
-        <v>13363</v>
+        <v>7504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>620</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>662763</v>
+        <v>371753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>620</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>668790</v>
+        <v>383675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>1240</v>
+        <v>708</v>
       </c>
       <c r="N14" s="7">
-        <v>1331553</v>
+        <v>755429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,10 +2028,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1992,10 +2043,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2007,10 +2058,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2075,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2036,13 +2087,13 @@
         <v>5559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2051,13 +2102,13 @@
         <v>991</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2066,19 +2117,19 @@
         <v>6550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>192</v>
@@ -2087,13 +2138,13 @@
         <v>207059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -2102,13 +2153,13 @@
         <v>218600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -2117,13 +2168,13 @@
         <v>425659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,7 +2230,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2194,10 +2245,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2206,13 +2257,13 @@
         <v>3151</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2221,19 +2272,19 @@
         <v>3151</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>261</v>
@@ -2242,10 +2293,10 @@
         <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -2257,13 +2308,13 @@
         <v>274945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -2272,13 +2323,13 @@
         <v>548926</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,7 +2385,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2346,13 +2397,13 @@
         <v>5106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2361,13 +2412,13 @@
         <v>4510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2376,19 +2427,19 @@
         <v>9616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>613</v>
@@ -2397,13 +2448,13 @@
         <v>657682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -2412,13 +2463,13 @@
         <v>688396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>1244</v>
@@ -2427,13 +2478,13 @@
         <v>1346078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2540,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2501,13 +2552,13 @@
         <v>4326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2516,13 +2567,13 @@
         <v>4419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2531,19 +2582,19 @@
         <v>8745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>713</v>
@@ -2552,13 +2603,13 @@
         <v>774772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>751</v>
@@ -2567,13 +2618,13 @@
         <v>816976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -2582,13 +2633,13 @@
         <v>1591748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2707,13 @@
         <v>22968</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -2671,13 +2722,13 @@
         <v>24778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -2686,19 +2737,19 @@
         <v>47746</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3188</v>
@@ -2707,13 +2758,13 @@
         <v>3403811</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3271</v>
@@ -2722,13 +2773,13 @@
         <v>3528190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>6459</v>
@@ -2737,13 +2788,13 @@
         <v>6932001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2850,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2823,7 +2874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A4EDB8-D09B-4220-9AFD-A398B33AA251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA3B64-60AC-4FA7-B476-D9028EC39080}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2947,13 +2998,13 @@
         <v>1301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2962,13 +3013,13 @@
         <v>1018</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2977,19 +3028,19 @@
         <v>2320</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>265</v>
@@ -2998,13 +3049,13 @@
         <v>292460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>276</v>
@@ -3013,13 +3064,13 @@
         <v>287685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>541</v>
@@ -3028,13 +3079,13 @@
         <v>580144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3141,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3102,13 +3153,13 @@
         <v>5107</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3117,13 +3168,13 @@
         <v>3192</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3132,19 +3183,19 @@
         <v>8300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -3153,13 +3204,13 @@
         <v>497468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>481</v>
@@ -3168,13 +3219,13 @@
         <v>519892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3183,13 +3234,13 @@
         <v>1017359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3296,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3257,13 +3308,13 @@
         <v>1531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3275,10 +3326,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3287,19 +3338,19 @@
         <v>1531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>333</v>
@@ -3308,13 +3359,13 @@
         <v>317034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -3323,10 +3374,10 @@
         <v>336309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3338,13 +3389,13 @@
         <v>653343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3451,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3412,13 +3463,13 @@
         <v>4732</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3427,13 +3478,13 @@
         <v>3409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3442,19 +3493,19 @@
         <v>8141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>349</v>
@@ -3463,13 +3514,13 @@
         <v>365232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>355</v>
@@ -3478,13 +3529,13 @@
         <v>383874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -3493,13 +3544,13 @@
         <v>749106</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,7 +3606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3567,13 +3618,13 @@
         <v>814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3585,10 +3636,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3597,19 +3648,19 @@
         <v>814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>211</v>
@@ -3618,13 +3669,13 @@
         <v>210407</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -3633,10 +3684,10 @@
         <v>218587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3648,13 +3699,13 @@
         <v>428994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3761,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3722,13 +3773,13 @@
         <v>1781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3740,10 +3791,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3752,19 +3803,19 @@
         <v>1781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>257</v>
@@ -3773,13 +3824,13 @@
         <v>261342</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3788,10 +3839,10 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3803,13 +3854,13 @@
         <v>534457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3916,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3877,13 +3928,13 @@
         <v>5084</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3892,13 +3943,13 @@
         <v>8257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3907,19 +3958,19 @@
         <v>13341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>576</v>
@@ -3928,13 +3979,13 @@
         <v>651474</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>639</v>
@@ -3943,13 +3994,13 @@
         <v>683037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M23" s="7">
         <v>1215</v>
@@ -3958,13 +4009,13 @@
         <v>1334511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4071,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4032,13 +4083,13 @@
         <v>5804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4047,13 +4098,13 @@
         <v>3306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4062,19 +4113,19 @@
         <v>9110</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>744</v>
@@ -4083,13 +4134,13 @@
         <v>772779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -4098,13 +4149,13 @@
         <v>822861</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>1496</v>
@@ -4113,13 +4164,13 @@
         <v>1595640</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4238,13 @@
         <v>26154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4202,13 +4253,13 @@
         <v>19183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4217,19 +4268,19 @@
         <v>45338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3205</v>
@@ -4238,13 +4289,13 @@
         <v>3368196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>3321</v>
@@ -4253,13 +4304,13 @@
         <v>3525359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
         <v>6526</v>
@@ -4268,13 +4319,13 @@
         <v>6893554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4381,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98FCFC5-A257-448C-A4B8-07A6FFD1388A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D9C832-31E1-4264-9598-8955CDD06555}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4371,7 +4422,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4475,97 +4526,97 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1543</v>
+        <v>1716</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1949</v>
+        <v>2125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>258755</v>
+        <v>309727</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>270997</v>
+        <v>289226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>866</v>
       </c>
       <c r="N5" s="7">
-        <v>529751</v>
+        <v>598952</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4628,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4592,7 +4643,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4607,7 +4658,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4621,7 +4672,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4630,97 +4681,97 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3886</v>
+        <v>3599</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2532</v>
+        <v>2356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>6418</v>
+        <v>5955</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>512930</v>
+        <v>512436</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
       </c>
       <c r="I8" s="7">
-        <v>550520</v>
+        <v>511204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>1087</v>
       </c>
       <c r="N8" s="7">
-        <v>1063450</v>
+        <v>1023640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4783,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>516816</v>
+        <v>516035</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4747,7 +4798,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553052</v>
+        <v>513560</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4762,7 +4813,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1069868</v>
+        <v>1029595</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4776,7 +4827,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4785,97 +4836,97 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>4947</v>
+        <v>4699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>4076</v>
+        <v>3720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>9023</v>
+        <v>8419</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>353</v>
       </c>
       <c r="D11" s="7">
-        <v>317293</v>
+        <v>311351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>369208</v>
+        <v>345408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>882</v>
       </c>
       <c r="N11" s="7">
-        <v>686501</v>
+        <v>656759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4938,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4902,7 +4953,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4917,7 +4968,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4931,7 +4982,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4940,97 +4991,97 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>6212</v>
+        <v>5977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>6658</v>
+        <v>6391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>316028</v>
+        <v>306580</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
       </c>
       <c r="I14" s="7">
-        <v>428110</v>
+        <v>475304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>881</v>
       </c>
       <c r="N14" s="7">
-        <v>744138</v>
+        <v>781883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,7 +5093,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5057,7 +5108,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5072,7 +5123,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5086,7 +5137,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5101,58 +5152,58 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>787</v>
+        <v>716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>787</v>
+        <v>716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5161,31 +5212,31 @@
         <v>488</v>
       </c>
       <c r="I17" s="7">
-        <v>230259</v>
+        <v>207159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
       </c>
       <c r="N17" s="7">
-        <v>427007</v>
+        <v>385901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5248,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5212,7 +5263,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231046</v>
+        <v>207875</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5227,7 +5278,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427794</v>
+        <v>386617</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5241,7 +5292,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5250,97 +5301,97 @@
         <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>4884</v>
+        <v>4640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2041</v>
+        <v>1888</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>6925</v>
+        <v>6528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>362</v>
       </c>
       <c r="D20" s="7">
-        <v>272339</v>
+        <v>264996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>454</v>
       </c>
       <c r="I20" s="7">
-        <v>272864</v>
+        <v>254499</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>816</v>
       </c>
       <c r="N20" s="7">
-        <v>545202</v>
+        <v>519495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5403,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5367,7 +5418,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5382,7 +5433,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5396,7 +5447,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5405,97 +5456,97 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>6976</v>
+        <v>6599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>4717</v>
+        <v>4405</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>11693</v>
+        <v>11004</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>589</v>
       </c>
       <c r="D23" s="7">
-        <v>618685</v>
+        <v>615640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>947</v>
       </c>
       <c r="I23" s="7">
-        <v>798465</v>
+        <v>843853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>1536</v>
       </c>
       <c r="N23" s="7">
-        <v>1417150</v>
+        <v>1459493</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,7 +5558,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625661</v>
+        <v>622239</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5522,7 +5573,7 @@
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>803182</v>
+        <v>848258</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5537,7 +5588,7 @@
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1428843</v>
+        <v>1470497</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5551,7 +5602,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5560,97 +5611,97 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3394</v>
+        <v>2923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>4696</v>
+        <v>4022</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>8090</v>
+        <v>6946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>758</v>
       </c>
       <c r="D26" s="7">
-        <v>856034</v>
+        <v>925797</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
       </c>
       <c r="I26" s="7">
-        <v>860976</v>
+        <v>711370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>1812</v>
       </c>
       <c r="N26" s="7">
-        <v>1717010</v>
+        <v>1637166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,7 +5713,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -5677,7 +5728,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -5692,7 +5743,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5715,97 +5766,97 @@
         <v>43</v>
       </c>
       <c r="D28" s="7">
-        <v>31843</v>
+        <v>30153</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
       </c>
       <c r="I28" s="7">
-        <v>19700</v>
+        <v>17930</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
       </c>
       <c r="N28" s="7">
-        <v>51543</v>
+        <v>48083</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3329</v>
       </c>
       <c r="D29" s="7">
-        <v>3348810</v>
+        <v>3425269</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>5318</v>
       </c>
       <c r="I29" s="7">
-        <v>3781400</v>
+        <v>3638022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>8647</v>
       </c>
       <c r="N29" s="7">
-        <v>7130211</v>
+        <v>7063291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,7 +5868,7 @@
         <v>3372</v>
       </c>
       <c r="D30" s="7">
-        <v>3380653</v>
+        <v>3455422</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5832,7 +5883,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3801100</v>
+        <v>3655952</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5847,7 +5898,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7181754</v>
+        <v>7111374</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5861,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
